--- a/daily study sheet.xlsx
+++ b/daily study sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajen\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B56BD-8365-4DFF-8EAF-EA84C68D08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB7368-BAB4-49D8-A121-2C1386C8697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1FCBF36F-C415-46D8-BE3D-75C64770F83A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">20 -01-2023 : 12:00 pm </t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Managing, booting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-01-2023: 8:00am </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git, github topics </t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B84DF-FF3A-4F62-809C-3273CFCF9307}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +467,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
